--- a/results/resultsACC_dt.xlsx
+++ b/results/resultsACC_dt.xlsx
@@ -542,13 +542,13 @@
         <v>127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003502540588378906</v>
+        <v>0.0003510129451751709</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07238864898681641</v>
+        <v>0.001929283142089844</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001366138458251953</v>
+        <v>0.0001461505889892578</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -591,13 +591,13 @@
         <v>127</v>
       </c>
       <c r="L3" t="n">
-        <v>7.863473892211914e-05</v>
+        <v>0.0001042332649230957</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001905918121337891</v>
+        <v>0.0005052089691162109</v>
       </c>
       <c r="N3" t="n">
-        <v>6.389617919921875e-05</v>
+        <v>7.009506225585938e-05</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -640,13 +640,13 @@
         <v>112</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002529032230377197</v>
+        <v>0.0003448097705841065</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001381158828735352</v>
+        <v>0.002162694931030273</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0001239776611328125</v>
+        <v>0.0001378059387207031</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -689,13 +689,13 @@
         <v>112</v>
       </c>
       <c r="L5" t="n">
-        <v>9.386777877807617e-05</v>
+        <v>0.0001088612079620361</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003461837768554688</v>
+        <v>0.001611232757568359</v>
       </c>
       <c r="N5" t="n">
-        <v>6.604194641113281e-05</v>
+        <v>6.914138793945312e-05</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
@@ -738,13 +738,13 @@
         <v>112</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000251542329788208</v>
+        <v>0.0003016772270202637</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001148700714111328</v>
+        <v>0.001768112182617188</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0001273155212402344</v>
+        <v>0.0001389980316162109</v>
       </c>
       <c r="O6" t="n">
         <v>4</v>
@@ -787,13 +787,13 @@
         <v>112</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001146736145019531</v>
+        <v>9.881377220153808e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002901792526245117</v>
+        <v>0.0004796981811523438</v>
       </c>
       <c r="N7" t="n">
-        <v>6.818771362304688e-05</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
@@ -836,13 +836,13 @@
         <v>127</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003385357856750488</v>
+        <v>0.000297827959060669</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07217001914978027</v>
+        <v>0.001911640167236328</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001287460327148438</v>
+        <v>0.0001235008239746094</v>
       </c>
       <c r="O8" t="n">
         <v>5</v>
@@ -885,13 +885,13 @@
         <v>127</v>
       </c>
       <c r="L9" t="n">
-        <v>9.305620193481445e-05</v>
+        <v>9.651613235473632e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0008161067962646484</v>
+        <v>0.0004632472991943359</v>
       </c>
       <c r="N9" t="n">
-        <v>6.747245788574219e-05</v>
+        <v>6.771087646484375e-05</v>
       </c>
       <c r="O9" t="n">
         <v>5</v>
@@ -934,13 +934,13 @@
         <v>127</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002670769691467285</v>
+        <v>0.0002902383804321289</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001405477523803711</v>
+        <v>0.003542423248291016</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0001356601715087891</v>
+        <v>0.0001339912414550781</v>
       </c>
       <c r="O10" t="n">
         <v>6</v>
@@ -983,13 +983,13 @@
         <v>127</v>
       </c>
       <c r="L11" t="n">
-        <v>9.04076099395752e-05</v>
+        <v>8.936643600463867e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0005228519439697266</v>
+        <v>0.0003247261047363281</v>
       </c>
       <c r="N11" t="n">
-        <v>6.604194641113281e-05</v>
+        <v>6.651878356933594e-05</v>
       </c>
       <c r="O11" t="n">
         <v>6</v>
@@ -1032,13 +1032,13 @@
         <v>143</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003248357772827149</v>
+        <v>0.0003073811531066895</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00194549560546875</v>
+        <v>0.02329897880554199</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0001308917999267578</v>
+        <v>0.0001316070556640625</v>
       </c>
       <c r="O12" t="n">
         <v>7</v>
@@ -1081,13 +1081,13 @@
         <v>143</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001053991317749023</v>
+        <v>9.483981132507324e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0006210803985595703</v>
+        <v>0.0006070137023925781</v>
       </c>
       <c r="N13" t="n">
-        <v>7.200241088867188e-05</v>
+        <v>6.723403930664062e-05</v>
       </c>
       <c r="O13" t="n">
         <v>7</v>
@@ -1130,13 +1130,13 @@
         <v>143</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003907778263092041</v>
+        <v>0.0003988339900970459</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05431747436523438</v>
+        <v>0.002424240112304688</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0001397132873535156</v>
+        <v>0.0001463890075683594</v>
       </c>
       <c r="O14" t="n">
         <v>8</v>
@@ -1179,13 +1179,13 @@
         <v>143</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001533699035644531</v>
+        <v>0.0001305110454559326</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01102638244628906</v>
+        <v>0.001642704010009766</v>
       </c>
       <c r="N15" t="n">
-        <v>7.390975952148438e-05</v>
+        <v>7.081031799316406e-05</v>
       </c>
       <c r="O15" t="n">
         <v>8</v>
@@ -1228,13 +1228,13 @@
         <v>142</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003398106098175049</v>
+        <v>0.0003354389667510986</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001859903335571289</v>
+        <v>0.002156257629394531</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001468658447265625</v>
+        <v>0.0001537799835205078</v>
       </c>
       <c r="O16" t="n">
         <v>9</v>
@@ -1277,13 +1277,13 @@
         <v>142</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001116132736206055</v>
+        <v>0.0001060726642608643</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000518798828125</v>
+        <v>0.0007762908935546875</v>
       </c>
       <c r="N17" t="n">
-        <v>7.271766662597656e-05</v>
+        <v>6.985664367675781e-05</v>
       </c>
       <c r="O17" t="n">
         <v>9</v>
@@ -1326,13 +1326,13 @@
         <v>142</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002844767570495606</v>
+        <v>0.0003756015300750732</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001140117645263672</v>
+        <v>0.002160787582397461</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001494884490966797</v>
+        <v>0.0001490116119384766</v>
       </c>
       <c r="O18" t="n">
         <v>10</v>
@@ -1375,13 +1375,13 @@
         <v>142</v>
       </c>
       <c r="L19" t="n">
-        <v>9.88461971282959e-05</v>
+        <v>0.0001087014675140381</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0007557868957519531</v>
+        <v>0.0008225440979003906</v>
       </c>
       <c r="N19" t="n">
-        <v>6.842613220214844e-05</v>
+        <v>7.2479248046875e-05</v>
       </c>
       <c r="O19" t="n">
         <v>10</v>
@@ -1424,13 +1424,13 @@
         <v>142</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002661216259002685</v>
+        <v>0.0003558664321899414</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001080513000488281</v>
+        <v>0.001538991928100586</v>
       </c>
       <c r="N20" t="n">
-        <v>9.5367431640625e-05</v>
+        <v>0.0001513957977294922</v>
       </c>
       <c r="O20" t="n">
         <v>11</v>
@@ -1473,13 +1473,13 @@
         <v>142</v>
       </c>
       <c r="L21" t="n">
-        <v>9.922552108764649e-05</v>
+        <v>0.0001194195747375488</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001329421997070312</v>
+        <v>0.001088142395019531</v>
       </c>
       <c r="N21" t="n">
-        <v>6.890296936035156e-05</v>
+        <v>6.937980651855469e-05</v>
       </c>
       <c r="O21" t="n">
         <v>11</v>
@@ -1522,13 +1522,13 @@
         <v>142</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003414945602416992</v>
+        <v>0.0003382596969604492</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00175929069519043</v>
+        <v>0.00151515007019043</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0001447200775146484</v>
+        <v>0.0001401901245117188</v>
       </c>
       <c r="O22" t="n">
         <v>12</v>
@@ -1571,13 +1571,13 @@
         <v>142</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000119952917098999</v>
+        <v>0.0001201677322387695</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001914501190185547</v>
+        <v>0.002721786499023438</v>
       </c>
       <c r="N23" t="n">
-        <v>7.176399230957031e-05</v>
+        <v>6.985664367675781e-05</v>
       </c>
       <c r="O23" t="n">
         <v>12</v>
@@ -1620,13 +1620,13 @@
         <v>142</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003093187808990478</v>
+        <v>0.0003214514255523682</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001551389694213867</v>
+        <v>0.001310110092163086</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0001447200775146484</v>
+        <v>0.0001528263092041016</v>
       </c>
       <c r="O24" t="n">
         <v>13</v>
@@ -1669,13 +1669,13 @@
         <v>142</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000154609203338623</v>
+        <v>0.0001015462875366211</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002959966659545898</v>
+        <v>0.0008554458618164062</v>
       </c>
       <c r="N25" t="n">
-        <v>7.200241088867188e-05</v>
+        <v>6.747245788574219e-05</v>
       </c>
       <c r="O25" t="n">
         <v>13</v>
@@ -1718,13 +1718,13 @@
         <v>142</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0008266270160675049</v>
+        <v>0.0004504039287567139</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1574258804321289</v>
+        <v>0.1220998764038086</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0001547336578369141</v>
+        <v>0.0001368522644042969</v>
       </c>
       <c r="O26" t="n">
         <v>14</v>
@@ -1767,13 +1767,13 @@
         <v>142</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0001699159145355225</v>
+        <v>7.676625251770019e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>0.009142637252807617</v>
+        <v>0.0004549026489257812</v>
       </c>
       <c r="N27" t="n">
-        <v>7.43865966796875e-05</v>
+        <v>6.389617919921875e-05</v>
       </c>
       <c r="O27" t="n">
         <v>14</v>
@@ -1816,13 +1816,13 @@
         <v>142</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0004474747180938721</v>
+        <v>0.0002838873863220215</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08977818489074707</v>
+        <v>0.0009777545928955078</v>
       </c>
       <c r="N28" t="n">
-        <v>0.000141143798828125</v>
+        <v>0.0001299381256103516</v>
       </c>
       <c r="O28" t="n">
         <v>15</v>
@@ -1865,13 +1865,13 @@
         <v>142</v>
       </c>
       <c r="L29" t="n">
-        <v>8.193731307983399e-05</v>
+        <v>8.326053619384766e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0003061294555664062</v>
+        <v>0.0004618167877197266</v>
       </c>
       <c r="N29" t="n">
-        <v>6.532669067382812e-05</v>
+        <v>6.461143493652344e-05</v>
       </c>
       <c r="O29" t="n">
         <v>15</v>
@@ -1914,13 +1914,13 @@
         <v>142</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0002860701084136963</v>
+        <v>0.0002867562770843506</v>
       </c>
       <c r="M30" t="n">
-        <v>0.002141237258911133</v>
+        <v>0.001163005828857422</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0001275539398193359</v>
+        <v>0.0001318454742431641</v>
       </c>
       <c r="O30" t="n">
         <v>16</v>
@@ -1963,13 +1963,13 @@
         <v>142</v>
       </c>
       <c r="L31" t="n">
-        <v>8.989310264587402e-05</v>
+        <v>8.603358268737793e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0007946491241455078</v>
+        <v>0.0005211830139160156</v>
       </c>
       <c r="N31" t="n">
-        <v>6.651878356933594e-05</v>
+        <v>6.628036499023438e-05</v>
       </c>
       <c r="O31" t="n">
         <v>16</v>
@@ -2012,13 +2012,13 @@
         <v>143</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0003289906978607178</v>
+        <v>0.0002767682075500488</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001244068145751953</v>
+        <v>0.001156091690063477</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0001368522644042969</v>
+        <v>0.0001313686370849609</v>
       </c>
       <c r="O32" t="n">
         <v>17</v>
@@ -2061,13 +2061,13 @@
         <v>143</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0001272590160369873</v>
+        <v>9.754037857055663e-05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0004823207855224609</v>
+        <v>0.0005450248718261719</v>
       </c>
       <c r="N33" t="n">
-        <v>7.224082946777344e-05</v>
+        <v>6.461143493652344e-05</v>
       </c>
       <c r="O33" t="n">
         <v>17</v>
@@ -2110,13 +2110,13 @@
         <v>143</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0004294872283935547</v>
+        <v>0.0002958111763000488</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1074323654174805</v>
+        <v>0.001208782196044922</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0001423358917236328</v>
+        <v>0.0001332759857177734</v>
       </c>
       <c r="O34" t="n">
         <v>18</v>
@@ -2159,13 +2159,13 @@
         <v>143</v>
       </c>
       <c r="L35" t="n">
-        <v>8.776235580444335e-05</v>
+        <v>9.615445137023925e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0007860660552978516</v>
+        <v>0.0007302761077880859</v>
       </c>
       <c r="N35" t="n">
-        <v>6.604194641113281e-05</v>
+        <v>6.699562072753906e-05</v>
       </c>
       <c r="O35" t="n">
         <v>18</v>
@@ -2208,13 +2208,13 @@
         <v>143</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0004744062423706055</v>
+        <v>0.0003265781402587891</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1124112606048584</v>
+        <v>0.00236964225769043</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0001280307769775391</v>
+        <v>0.0001337528228759766</v>
       </c>
       <c r="O36" t="n">
         <v>19</v>
@@ -2257,13 +2257,13 @@
         <v>143</v>
       </c>
       <c r="L37" t="n">
-        <v>8.241963386535644e-05</v>
+        <v>9.993505477905274e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0003461837768554688</v>
+        <v>0.0007028579711914062</v>
       </c>
       <c r="N37" t="n">
-        <v>6.604194641113281e-05</v>
+        <v>6.771087646484375e-05</v>
       </c>
       <c r="O37" t="n">
         <v>19</v>
@@ -2306,13 +2306,13 @@
         <v>143</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0006861965656280518</v>
+        <v>0.0003196842670440674</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1266074180603027</v>
+        <v>0.001490116119384766</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0001432895660400391</v>
+        <v>0.0001420974731445312</v>
       </c>
       <c r="O38" t="n">
         <v>20</v>
@@ -2355,13 +2355,13 @@
         <v>143</v>
       </c>
       <c r="L39" t="n">
-        <v>8.369302749633789e-05</v>
+        <v>9.907007217407226e-05</v>
       </c>
       <c r="M39" t="n">
-        <v>0.001111268997192383</v>
+        <v>0.0004878044128417969</v>
       </c>
       <c r="N39" t="n">
-        <v>6.818771362304688e-05</v>
+        <v>6.723403930664062e-05</v>
       </c>
       <c r="O39" t="n">
         <v>20</v>
@@ -2404,13 +2404,13 @@
         <v>143</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0003006296157836914</v>
+        <v>0.000323047399520874</v>
       </c>
       <c r="M40" t="n">
-        <v>0.003088951110839844</v>
+        <v>0.001863241195678711</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0001344680786132812</v>
+        <v>0.0001451969146728516</v>
       </c>
       <c r="O40" t="n">
         <v>21</v>
@@ -2453,13 +2453,13 @@
         <v>143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0001084551811218262</v>
+        <v>0.0001066689491271973</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0007445812225341797</v>
+        <v>0.0007014274597167969</v>
       </c>
       <c r="N41" t="n">
-        <v>6.842613220214844e-05</v>
+        <v>6.961822509765625e-05</v>
       </c>
       <c r="O41" t="n">
         <v>21</v>
@@ -2502,13 +2502,13 @@
         <v>143</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0005740828514099121</v>
+        <v>0.0003133237361907959</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1665496826171875</v>
+        <v>0.001327991485595703</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0001494884490966797</v>
+        <v>0.0001485347747802734</v>
       </c>
       <c r="O42" t="n">
         <v>22</v>
@@ -2551,13 +2551,13 @@
         <v>143</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0001139204502105713</v>
+        <v>9.254765510559082e-05</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00136113166809082</v>
+        <v>0.0006449222564697266</v>
       </c>
       <c r="N43" t="n">
-        <v>7.462501525878906e-05</v>
+        <v>6.628036499023438e-05</v>
       </c>
       <c r="O43" t="n">
         <v>22</v>
@@ -2600,13 +2600,13 @@
         <v>142</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0003041489124298096</v>
+        <v>0.0003113179206848144</v>
       </c>
       <c r="M44" t="n">
-        <v>0.001511335372924805</v>
+        <v>0.001354694366455078</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0001375675201416016</v>
+        <v>0.0001461505889892578</v>
       </c>
       <c r="O44" t="n">
         <v>23</v>
@@ -2649,13 +2649,13 @@
         <v>142</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0001129810810089111</v>
+        <v>0.0001090602874755859</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001353979110717773</v>
+        <v>0.0005419254302978516</v>
       </c>
       <c r="N45" t="n">
-        <v>7.05718994140625e-05</v>
+        <v>6.771087646484375e-05</v>
       </c>
       <c r="O45" t="n">
         <v>23</v>
@@ -2698,13 +2698,13 @@
         <v>142</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0003715465068817138</v>
+        <v>0.0003028502464294434</v>
       </c>
       <c r="M46" t="n">
-        <v>0.002977609634399414</v>
+        <v>0.001278400421142578</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0001366138458251953</v>
+        <v>0.0001435279846191406</v>
       </c>
       <c r="O46" t="n">
         <v>24</v>
@@ -2747,13 +2747,13 @@
         <v>142</v>
       </c>
       <c r="L47" t="n">
-        <v>9.424543380737304e-05</v>
+        <v>0.0001027522087097168</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0005278587341308594</v>
+        <v>0.0007660388946533203</v>
       </c>
       <c r="N47" t="n">
-        <v>6.842613220214844e-05</v>
+        <v>6.699562072753906e-05</v>
       </c>
       <c r="O47" t="n">
         <v>24</v>
@@ -2796,13 +2796,13 @@
         <v>142</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0006275691986083984</v>
+        <v>0.0003261897563934326</v>
       </c>
       <c r="M48" t="n">
-        <v>0.00550079345703125</v>
+        <v>0.06749486923217773</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0001378059387207031</v>
+        <v>0.0001354217529296875</v>
       </c>
       <c r="O48" t="n">
         <v>25</v>
@@ -2845,13 +2845,13 @@
         <v>142</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0001384880542755127</v>
+        <v>7.415461540222168e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>0.00151371955871582</v>
+        <v>0.0003342628479003906</v>
       </c>
       <c r="N49" t="n">
-        <v>7.462501525878906e-05</v>
+        <v>6.461143493652344e-05</v>
       </c>
       <c r="O49" t="n">
         <v>25</v>
@@ -2894,13 +2894,13 @@
         <v>142</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0005911061763763428</v>
+        <v>0.0002866201400756836</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1021659374237061</v>
+        <v>0.00143885612487793</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0001463890075683594</v>
+        <v>0.0001058578491210938</v>
       </c>
       <c r="O50" t="n">
         <v>26</v>
@@ -2943,13 +2943,13 @@
         <v>142</v>
       </c>
       <c r="L51" t="n">
-        <v>9.030914306640625e-05</v>
+        <v>9.396648406982422e-05</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0004010200500488281</v>
+        <v>0.0006434917449951172</v>
       </c>
       <c r="N51" t="n">
-        <v>7.081031799316406e-05</v>
+        <v>6.389617919921875e-05</v>
       </c>
       <c r="O51" t="n">
         <v>26</v>
@@ -2992,13 +2992,13 @@
         <v>140</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0003145484924316406</v>
+        <v>0.0003179519176483154</v>
       </c>
       <c r="M52" t="n">
-        <v>0.002980709075927734</v>
+        <v>0.0101468563079834</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0001385211944580078</v>
+        <v>0.0001244544982910156</v>
       </c>
       <c r="O52" t="n">
         <v>27</v>
@@ -3041,13 +3041,13 @@
         <v>140</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0001118502616882324</v>
+        <v>9.253764152526855e-05</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0003561973571777344</v>
+        <v>0.0004978179931640625</v>
       </c>
       <c r="N53" t="n">
-        <v>7.176399230957031e-05</v>
+        <v>6.699562072753906e-05</v>
       </c>
       <c r="O53" t="n">
         <v>27</v>
@@ -3090,13 +3090,13 @@
         <v>142</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0003355309963226318</v>
+        <v>0.0003639037609100342</v>
       </c>
       <c r="M54" t="n">
-        <v>0.002154827117919922</v>
+        <v>0.0400702953338623</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0001473426818847656</v>
+        <v>0.0001451969146728516</v>
       </c>
       <c r="O54" t="n">
         <v>28</v>
@@ -3139,13 +3139,13 @@
         <v>142</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0001133229732513428</v>
+        <v>0.0001012849807739258</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0004873275756835938</v>
+        <v>0.000606536865234375</v>
       </c>
       <c r="N55" t="n">
-        <v>7.271766662597656e-05</v>
+        <v>6.985664367675781e-05</v>
       </c>
       <c r="O55" t="n">
         <v>28</v>
@@ -3188,13 +3188,13 @@
         <v>142</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0003256726264953613</v>
+        <v>0.0003190047740936279</v>
       </c>
       <c r="M56" t="n">
-        <v>0.001979589462280273</v>
+        <v>0.001376152038574219</v>
       </c>
       <c r="N56" t="n">
-        <v>0.000141143798828125</v>
+        <v>0.0001480579376220703</v>
       </c>
       <c r="O56" t="n">
         <v>29</v>
@@ -3237,13 +3237,13 @@
         <v>142</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0001181912422180176</v>
+        <v>0.0001022515296936035</v>
       </c>
       <c r="M57" t="n">
-        <v>0.00104069709777832</v>
+        <v>0.0006687641143798828</v>
       </c>
       <c r="N57" t="n">
-        <v>7.104873657226562e-05</v>
+        <v>6.937980651855469e-05</v>
       </c>
       <c r="O57" t="n">
         <v>29</v>
@@ -3286,13 +3286,13 @@
         <v>142</v>
       </c>
       <c r="L58" t="n">
-        <v>0.000487966775894165</v>
+        <v>0.0003215765953063965</v>
       </c>
       <c r="M58" t="n">
-        <v>0.005871057510375977</v>
+        <v>0.001739740371704102</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0001480579376220703</v>
+        <v>0.0001366138458251953</v>
       </c>
       <c r="O58" t="n">
         <v>30</v>
@@ -3335,13 +3335,13 @@
         <v>142</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0001494905948638916</v>
+        <v>9.197258949279786e-05</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002192497253417969</v>
+        <v>0.0006628036499023438</v>
       </c>
       <c r="N59" t="n">
-        <v>7.748603820800781e-05</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="O59" t="n">
         <v>30</v>
@@ -3384,13 +3384,13 @@
         <v>142</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0006672649383544922</v>
+        <v>0.000306804895401001</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1472749710083008</v>
+        <v>0.001507997512817383</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0001554489135742188</v>
+        <v>0.0001361370086669922</v>
       </c>
       <c r="O60" t="n">
         <v>31</v>
@@ -3433,13 +3433,13 @@
         <v>142</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0001269526481628418</v>
+        <v>9.912776947021484e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>0.001144886016845703</v>
+        <v>0.0006916522979736328</v>
       </c>
       <c r="N61" t="n">
-        <v>7.224082946777344e-05</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="O61" t="n">
         <v>31</v>
@@ -3482,13 +3482,13 @@
         <v>142</v>
       </c>
       <c r="L62" t="n">
-        <v>0.000679307222366333</v>
+        <v>0.0003184044361114502</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1800041198730469</v>
+        <v>0.001171112060546875</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0001528263092041016</v>
+        <v>0.0001471042633056641</v>
       </c>
       <c r="O62" t="n">
         <v>32</v>
@@ -3531,13 +3531,13 @@
         <v>142</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0001868305206298828</v>
+        <v>0.0001088199615478516</v>
       </c>
       <c r="M63" t="n">
-        <v>0.005806207656860352</v>
+        <v>0.0008368492126464844</v>
       </c>
       <c r="N63" t="n">
-        <v>7.414817810058594e-05</v>
+        <v>6.723403930664062e-05</v>
       </c>
       <c r="O63" t="n">
         <v>32</v>
@@ -3580,13 +3580,13 @@
         <v>142</v>
       </c>
       <c r="L64" t="n">
-        <v>0.001419032096862793</v>
+        <v>0.000309051513671875</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3032217025756836</v>
+        <v>0.001419305801391602</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0002036094665527344</v>
+        <v>0.0001492500305175781</v>
       </c>
       <c r="O64" t="n">
         <v>33</v>
@@ -3629,13 +3629,13 @@
         <v>142</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0002579493522644043</v>
+        <v>9.15224552154541e-05</v>
       </c>
       <c r="M65" t="n">
-        <v>0.007049322128295898</v>
+        <v>0.0007481575012207031</v>
       </c>
       <c r="N65" t="n">
-        <v>8.320808410644531e-05</v>
+        <v>6.699562072753906e-05</v>
       </c>
       <c r="O65" t="n">
         <v>33</v>
@@ -3678,13 +3678,13 @@
         <v>142</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0009140653610229492</v>
+        <v>0.0003154094219207764</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1810789108276367</v>
+        <v>0.00208592414855957</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0001966953277587891</v>
+        <v>0.0001378059387207031</v>
       </c>
       <c r="O66" t="n">
         <v>34</v>
@@ -3727,13 +3727,13 @@
         <v>142</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0001779396533966064</v>
+        <v>8.466124534606934e-05</v>
       </c>
       <c r="M67" t="n">
-        <v>0.002713680267333984</v>
+        <v>0.0003778934478759766</v>
       </c>
       <c r="N67" t="n">
-        <v>7.724761962890625e-05</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="O67" t="n">
         <v>34</v>
@@ -3776,13 +3776,13 @@
         <v>142</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0008716855049133301</v>
+        <v>0.0003096652030944824</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1946935653686523</v>
+        <v>0.001339435577392578</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0002057552337646484</v>
+        <v>0.0001387596130371094</v>
       </c>
       <c r="O68" t="n">
         <v>35</v>
@@ -3825,13 +3825,13 @@
         <v>142</v>
       </c>
       <c r="L69" t="n">
-        <v>0.000167752742767334</v>
+        <v>9.299063682556152e-05</v>
       </c>
       <c r="M69" t="n">
-        <v>0.004621505737304688</v>
+        <v>0.0009410381317138672</v>
       </c>
       <c r="N69" t="n">
-        <v>7.462501525878906e-05</v>
+        <v>6.794929504394531e-05</v>
       </c>
       <c r="O69" t="n">
         <v>35</v>
@@ -3874,13 +3874,13 @@
         <v>142</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0007769107818603515</v>
+        <v>0.0003001809120178223</v>
       </c>
       <c r="M70" t="n">
-        <v>0.184091329574585</v>
+        <v>0.001188278198242188</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0001571178436279297</v>
+        <v>0.0001425743103027344</v>
       </c>
       <c r="O70" t="n">
         <v>36</v>
@@ -3923,13 +3923,13 @@
         <v>142</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0002029473781585693</v>
+        <v>9.379506111145019e-05</v>
       </c>
       <c r="M71" t="n">
-        <v>0.009743928909301758</v>
+        <v>0.0005388259887695312</v>
       </c>
       <c r="N71" t="n">
-        <v>7.510185241699219e-05</v>
+        <v>6.651878356933594e-05</v>
       </c>
       <c r="O71" t="n">
         <v>36</v>
@@ -3972,13 +3972,13 @@
         <v>140</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0004330813884735107</v>
+        <v>0.0003136167526245117</v>
       </c>
       <c r="M72" t="n">
-        <v>0.09064650535583496</v>
+        <v>0.001235485076904297</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0001072883605957031</v>
+        <v>0.0001378059387207031</v>
       </c>
       <c r="O72" t="n">
         <v>37</v>
@@ -4021,10 +4021,10 @@
         <v>142</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0001016666889190674</v>
+        <v>8.899831771850586e-05</v>
       </c>
       <c r="M73" t="n">
-        <v>0.001900911331176758</v>
+        <v>0.0005886554718017578</v>
       </c>
       <c r="N73" t="n">
         <v>6.723403930664062e-05</v>
@@ -4070,13 +4070,13 @@
         <v>140</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0005289511680603027</v>
+        <v>0.0003131852149963379</v>
       </c>
       <c r="M74" t="n">
-        <v>0.1023633480072021</v>
+        <v>0.001240730285644531</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0001332759857177734</v>
+        <v>0.0001373291015625</v>
       </c>
       <c r="O74" t="n">
         <v>38</v>
@@ -4119,13 +4119,13 @@
         <v>142</v>
       </c>
       <c r="L75" t="n">
-        <v>9.671521186828614e-05</v>
+        <v>8.633065223693847e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>0.001089096069335938</v>
+        <v>0.0004334449768066406</v>
       </c>
       <c r="N75" t="n">
-        <v>6.556510925292969e-05</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="O75" t="n">
         <v>38</v>
@@ -4168,13 +4168,13 @@
         <v>141</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0006373326778411865</v>
+        <v>0.0003107461929321289</v>
       </c>
       <c r="M76" t="n">
-        <v>0.3701801300048828</v>
+        <v>0.001312732696533203</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0001087188720703125</v>
+        <v>0.0001344680786132812</v>
       </c>
       <c r="O76" t="n">
         <v>39</v>
@@ -4217,13 +4217,13 @@
         <v>143</v>
       </c>
       <c r="L77" t="n">
-        <v>7.14411735534668e-05</v>
+        <v>0.0001176233291625977</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0007860660552978516</v>
+        <v>0.009049654006958008</v>
       </c>
       <c r="N77" t="n">
-        <v>5.793571472167969e-05</v>
+        <v>6.771087646484375e-05</v>
       </c>
       <c r="O77" t="n">
         <v>39</v>
@@ -4266,13 +4266,13 @@
         <v>141</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0002732596397399902</v>
+        <v>0.000334418773651123</v>
       </c>
       <c r="M78" t="n">
-        <v>0.002376794815063477</v>
+        <v>0.09127092361450195</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0001120567321777344</v>
+        <v>0.0001425743103027344</v>
       </c>
       <c r="O78" t="n">
         <v>40</v>
@@ -4315,13 +4315,13 @@
         <v>143</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0001032938957214355</v>
+        <v>8.520364761352539e-05</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0006411075592041016</v>
+        <v>0.0004708766937255859</v>
       </c>
       <c r="N79" t="n">
-        <v>6.389617919921875e-05</v>
+        <v>6.747245788574219e-05</v>
       </c>
       <c r="O79" t="n">
         <v>40</v>
@@ -4364,13 +4364,13 @@
         <v>141</v>
       </c>
       <c r="L80" t="n">
-        <v>0.00030582594871521</v>
+        <v>0.0002949385643005371</v>
       </c>
       <c r="M80" t="n">
-        <v>0.002053737640380859</v>
+        <v>0.001052141189575195</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0001320838928222656</v>
+        <v>0.0001380443572998047</v>
       </c>
       <c r="O80" t="n">
         <v>41</v>
@@ -4413,10 +4413,10 @@
         <v>143</v>
       </c>
       <c r="L81" t="n">
-        <v>9.781122207641602e-05</v>
+        <v>8.743858337402344e-05</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0006344318389892578</v>
+        <v>0.0003476142883300781</v>
       </c>
       <c r="N81" t="n">
         <v>6.699562072753906e-05</v>
@@ -4462,13 +4462,13 @@
         <v>141</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0002960388660430908</v>
+        <v>0.0002775754928588867</v>
       </c>
       <c r="M82" t="n">
-        <v>0.001327037811279297</v>
+        <v>0.001523494720458984</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0001418590545654297</v>
+        <v>0.0001332759857177734</v>
       </c>
       <c r="O82" t="n">
         <v>42</v>
@@ -4511,13 +4511,13 @@
         <v>143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0001070480346679688</v>
+        <v>8.340907096862793e-05</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0008857250213623047</v>
+        <v>0.0005118846893310547</v>
       </c>
       <c r="N83" t="n">
-        <v>6.866455078125e-05</v>
+        <v>6.67572021484375e-05</v>
       </c>
       <c r="O83" t="n">
         <v>42</v>
@@ -4560,13 +4560,13 @@
         <v>141</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0002874758243560791</v>
+        <v>0.0004164712429046631</v>
       </c>
       <c r="M84" t="n">
-        <v>0.001326560974121094</v>
+        <v>0.002619504928588867</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0001347064971923828</v>
+        <v>0.0001370906829833984</v>
       </c>
       <c r="O84" t="n">
         <v>43</v>
@@ -4609,13 +4609,13 @@
         <v>143</v>
       </c>
       <c r="L85" t="n">
-        <v>9.586811065673829e-05</v>
+        <v>0.0001995003223419189</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0005388259887695312</v>
+        <v>0.002128362655639648</v>
       </c>
       <c r="N85" t="n">
-        <v>6.794929504394531e-05</v>
+        <v>7.033348083496094e-05</v>
       </c>
       <c r="O85" t="n">
         <v>43</v>
@@ -4658,13 +4658,13 @@
         <v>141</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0002934203147888183</v>
+        <v>0.000685549259185791</v>
       </c>
       <c r="M86" t="n">
-        <v>0.001285552978515625</v>
+        <v>0.1550028324127197</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0001413822174072266</v>
+        <v>0.0001456737518310547</v>
       </c>
       <c r="O86" t="n">
         <v>44</v>
@@ -4707,13 +4707,13 @@
         <v>143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0001012487411499023</v>
+        <v>0.0001189355850219727</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0007755756378173828</v>
+        <v>0.001442193984985352</v>
       </c>
       <c r="N87" t="n">
-        <v>6.651878356933594e-05</v>
+        <v>6.914138793945312e-05</v>
       </c>
       <c r="O87" t="n">
         <v>44</v>
@@ -4756,13 +4756,13 @@
         <v>141</v>
       </c>
       <c r="L88" t="n">
-        <v>0.00028682541847229</v>
+        <v>0.0007502884864807129</v>
       </c>
       <c r="M88" t="n">
-        <v>0.001911401748657227</v>
+        <v>0.1651861667633057</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0001375675201416016</v>
+        <v>0.0001575946807861328</v>
       </c>
       <c r="O88" t="n">
         <v>45</v>
@@ -4805,13 +4805,13 @@
         <v>143</v>
       </c>
       <c r="L89" t="n">
-        <v>9.415555000305175e-05</v>
+        <v>0.0001047863960266113</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0005631446838378906</v>
+        <v>0.001825094223022461</v>
       </c>
       <c r="N89" t="n">
-        <v>6.628036499023438e-05</v>
+        <v>6.937980651855469e-05</v>
       </c>
       <c r="O89" t="n">
         <v>45</v>
@@ -4854,13 +4854,13 @@
         <v>141</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0003156821727752686</v>
+        <v>0.0003599114418029785</v>
       </c>
       <c r="M90" t="n">
-        <v>0.001450777053833008</v>
+        <v>0.00236964225769043</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0001437664031982422</v>
+        <v>0.0001392364501953125</v>
       </c>
       <c r="O90" t="n">
         <v>46</v>
@@ -4903,13 +4903,13 @@
         <v>143</v>
       </c>
       <c r="L91" t="n">
-        <v>9.812641143798828e-05</v>
+        <v>0.0001085152626037598</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0006546974182128906</v>
+        <v>0.001055479049682617</v>
       </c>
       <c r="N91" t="n">
-        <v>6.890296936035156e-05</v>
+        <v>6.985664367675781e-05</v>
       </c>
       <c r="O91" t="n">
         <v>46</v>
@@ -4952,13 +4952,13 @@
         <v>138</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0003205969333648682</v>
+        <v>0.0003588461875915527</v>
       </c>
       <c r="M92" t="n">
-        <v>0.003171443939208984</v>
+        <v>0.002363920211791992</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0001375675201416016</v>
+        <v>0.0001599788665771484</v>
       </c>
       <c r="O92" t="n">
         <v>47</v>
@@ -5001,13 +5001,13 @@
         <v>140</v>
       </c>
       <c r="L93" t="n">
-        <v>9.154725074768066e-05</v>
+        <v>9.719109535217285e-05</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0008289813995361328</v>
+        <v>0.00060272216796875</v>
       </c>
       <c r="N93" t="n">
-        <v>6.890296936035156e-05</v>
+        <v>7.033348083496094e-05</v>
       </c>
       <c r="O93" t="n">
         <v>47</v>
@@ -5050,13 +5050,13 @@
         <v>138</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0004000828266143799</v>
+        <v>0.0002969379425048828</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01015210151672363</v>
+        <v>0.001088142395019531</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0001416206359863281</v>
+        <v>0.0001480579376220703</v>
       </c>
       <c r="O94" t="n">
         <v>48</v>
@@ -5099,13 +5099,13 @@
         <v>140</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0001150727272033691</v>
+        <v>9.024572372436523e-05</v>
       </c>
       <c r="M95" t="n">
-        <v>0.001423835754394531</v>
+        <v>0.0008456707000732422</v>
       </c>
       <c r="N95" t="n">
-        <v>7.224082946777344e-05</v>
+        <v>6.628036499023438e-05</v>
       </c>
       <c r="O95" t="n">
         <v>48</v>
@@ -5148,13 +5148,13 @@
         <v>138</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0004713129997253418</v>
+        <v>0.0003216929435729981</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1061820983886719</v>
+        <v>0.001589775085449219</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0001428127288818359</v>
+        <v>0.0001504421234130859</v>
       </c>
       <c r="O96" t="n">
         <v>49</v>
@@ -5197,13 +5197,13 @@
         <v>140</v>
       </c>
       <c r="L97" t="n">
-        <v>8.460259437561035e-05</v>
+        <v>0.0001023154258728027</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0007002353668212891</v>
+        <v>0.0004174709320068359</v>
       </c>
       <c r="N97" t="n">
-        <v>6.651878356933594e-05</v>
+        <v>6.628036499023438e-05</v>
       </c>
       <c r="O97" t="n">
         <v>49</v>
@@ -5225,13 +5225,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9741451209341118</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F98" t="n">
-        <v>0.900709219858156</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H98" t="n">
         <v>1041</v>
@@ -5240,19 +5240,19 @@
         <v>14</v>
       </c>
       <c r="J98" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K98" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L98" t="n">
-        <v>0.01205897545814514</v>
+        <v>0.009293941259384155</v>
       </c>
       <c r="M98" t="n">
-        <v>0.03765559196472168</v>
+        <v>0.02148222923278809</v>
       </c>
       <c r="N98" t="n">
-        <v>0.00832366943359375</v>
+        <v>0.007883071899414062</v>
       </c>
       <c r="O98" t="n">
         <v>2</v>
@@ -5274,34 +5274,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F99" t="n">
-        <v>0.903448275862069</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9097222222222222</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H99" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I99" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J99" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K99" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L99" t="n">
-        <v>0.008007707118988037</v>
+        <v>0.008546807289123536</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02225136756896973</v>
+        <v>0.03211379051208496</v>
       </c>
       <c r="N99" t="n">
-        <v>0.00648951530456543</v>
+        <v>0.006545305252075195</v>
       </c>
       <c r="O99" t="n">
         <v>2</v>
@@ -5323,13 +5323,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E100" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9741451209341118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H100" t="n">
         <v>1041</v>
@@ -5338,19 +5338,19 @@
         <v>14</v>
       </c>
       <c r="J100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K100" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L100" t="n">
-        <v>0.009527515172958374</v>
+        <v>0.009316640138626099</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01927995681762695</v>
+        <v>0.03175210952758789</v>
       </c>
       <c r="N100" t="n">
-        <v>0.007515430450439453</v>
+        <v>0.007354736328125</v>
       </c>
       <c r="O100" t="n">
         <v>3</v>
@@ -5372,19 +5372,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="G101" t="n">
         <v>0.9027777777777778</v>
       </c>
       <c r="H101" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J101" t="n">
         <v>14</v>
@@ -5393,13 +5393,13 @@
         <v>130</v>
       </c>
       <c r="L101" t="n">
-        <v>0.007382115125656128</v>
+        <v>0.008477811336517333</v>
       </c>
       <c r="M101" t="n">
-        <v>0.01374387741088867</v>
+        <v>0.03708243370056152</v>
       </c>
       <c r="N101" t="n">
-        <v>0.006460666656494141</v>
+        <v>0.006544113159179688</v>
       </c>
       <c r="O101" t="n">
         <v>3</v>
@@ -5424,31 +5424,31 @@
         <v>0.9741451209341118</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8951048951048951</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H102" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I102" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K102" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L102" t="n">
-        <v>0.008990930795669556</v>
+        <v>0.009240122318267822</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0144655704498291</v>
+        <v>0.02091622352600098</v>
       </c>
       <c r="N102" t="n">
-        <v>0.007525444030761719</v>
+        <v>0.007903337478637695</v>
       </c>
       <c r="O102" t="n">
         <v>4</v>
@@ -5470,34 +5470,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E103" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9783152627189324</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9041095890410958</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H103" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J103" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K103" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L103" t="n">
-        <v>0.007745589256286621</v>
+        <v>0.00750417423248291</v>
       </c>
       <c r="M103" t="n">
-        <v>0.04427456855773926</v>
+        <v>0.04098606109619141</v>
       </c>
       <c r="N103" t="n">
-        <v>0.006474018096923828</v>
+        <v>0.006494998931884766</v>
       </c>
       <c r="O103" t="n">
         <v>4</v>
@@ -5519,34 +5519,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9741451209341118</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9064748201438849</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G104" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H104" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J104" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K104" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L104" t="n">
-        <v>0.009024398803710938</v>
+        <v>0.01046538162231445</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02684783935546875</v>
+        <v>0.03607058525085449</v>
       </c>
       <c r="N104" t="n">
-        <v>0.007622480392456055</v>
+        <v>0.007461071014404297</v>
       </c>
       <c r="O104" t="n">
         <v>5</v>
@@ -5568,34 +5568,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9799833194328608</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9225352112676056</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9097222222222222</v>
       </c>
       <c r="H105" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="I105" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J105" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K105" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L105" t="n">
-        <v>0.007548767328262329</v>
+        <v>0.007681540966033936</v>
       </c>
       <c r="M105" t="n">
-        <v>0.01447796821594238</v>
+        <v>0.01662135124206543</v>
       </c>
       <c r="N105" t="n">
-        <v>0.006487846374511719</v>
+        <v>0.006573200225830078</v>
       </c>
       <c r="O105" t="n">
         <v>5</v>
@@ -5617,34 +5617,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9071428571428571</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H106" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K106" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L106" t="n">
-        <v>0.008921287775039673</v>
+        <v>0.01004008293151856</v>
       </c>
       <c r="M106" t="n">
-        <v>0.01393437385559082</v>
+        <v>0.03500509262084961</v>
       </c>
       <c r="N106" t="n">
-        <v>0.007576227188110352</v>
+        <v>0.008055448532104492</v>
       </c>
       <c r="O106" t="n">
         <v>6</v>
@@ -5666,19 +5666,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="G107" t="n">
         <v>0.9027777777777778</v>
       </c>
       <c r="H107" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I107" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J107" t="n">
         <v>14</v>
@@ -5687,13 +5687,13 @@
         <v>130</v>
       </c>
       <c r="L107" t="n">
-        <v>0.007929966211318969</v>
+        <v>0.007997716903686523</v>
       </c>
       <c r="M107" t="n">
-        <v>0.01567554473876953</v>
+        <v>0.02320480346679688</v>
       </c>
       <c r="N107" t="n">
-        <v>0.00649714469909668</v>
+        <v>0.006746053695678711</v>
       </c>
       <c r="O107" t="n">
         <v>6</v>
@@ -5715,13 +5715,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9741451209341118</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H108" t="n">
         <v>1041</v>
@@ -5730,19 +5730,19 @@
         <v>14</v>
       </c>
       <c r="J108" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K108" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L108" t="n">
-        <v>0.008988285779953004</v>
+        <v>0.009727590560913086</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0323338508605957</v>
+        <v>0.02022075653076172</v>
       </c>
       <c r="N108" t="n">
-        <v>0.00743412971496582</v>
+        <v>0.007838964462280273</v>
       </c>
       <c r="O108" t="n">
         <v>7</v>
@@ -5764,34 +5764,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E109" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9783152627189324</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H109" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="I109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J109" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K109" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L109" t="n">
-        <v>0.007432145833969116</v>
+        <v>0.008015032291412354</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0131678581237793</v>
+        <v>0.03400254249572754</v>
       </c>
       <c r="N109" t="n">
-        <v>0.00648045539855957</v>
+        <v>0.006855964660644531</v>
       </c>
       <c r="O109" t="n">
         <v>7</v>
@@ -5816,31 +5816,31 @@
         <v>0.9749791492910759</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9071428571428571</v>
       </c>
       <c r="G110" t="n">
-        <v>0.875</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H110" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J110" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K110" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L110" t="n">
-        <v>0.008879717350006103</v>
+        <v>0.01186318683624268</v>
       </c>
       <c r="M110" t="n">
-        <v>0.01343727111816406</v>
+        <v>0.244077205657959</v>
       </c>
       <c r="N110" t="n">
-        <v>0.007505893707275391</v>
+        <v>0.007327795028686523</v>
       </c>
       <c r="O110" t="n">
         <v>8</v>
@@ -5862,13 +5862,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9783152627189324</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9097222222222222</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9097222222222222</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H111" t="n">
         <v>1042</v>
@@ -5877,19 +5877,19 @@
         <v>13</v>
       </c>
       <c r="J111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K111" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L111" t="n">
-        <v>0.007383659362792969</v>
+        <v>0.008605989694595337</v>
       </c>
       <c r="M111" t="n">
-        <v>0.01284956932067871</v>
+        <v>0.04104280471801758</v>
       </c>
       <c r="N111" t="n">
-        <v>0.006461620330810547</v>
+        <v>0.00696563720703125</v>
       </c>
       <c r="O111" t="n">
         <v>8</v>
@@ -5911,34 +5911,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E112" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9136690647482014</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H112" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I112" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J112" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K112" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.009476512193679809</v>
+        <v>0.01058229470252991</v>
       </c>
       <c r="M112" t="n">
-        <v>0.02219557762145996</v>
+        <v>0.05236244201660156</v>
       </c>
       <c r="N112" t="n">
-        <v>0.007442951202392578</v>
+        <v>0.007702827453613281</v>
       </c>
       <c r="O112" t="n">
         <v>9</v>
@@ -5963,31 +5963,31 @@
         <v>0.97581317764804</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H113" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J113" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K113" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L113" t="n">
-        <v>0.008032826662063598</v>
+        <v>0.008515031814575195</v>
       </c>
       <c r="M113" t="n">
-        <v>0.01585674285888672</v>
+        <v>0.01967358589172363</v>
       </c>
       <c r="N113" t="n">
-        <v>0.006489753723144531</v>
+        <v>0.006949424743652344</v>
       </c>
       <c r="O113" t="n">
         <v>9</v>
@@ -6006,16 +6006,16 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9983310152990265</v>
+        <v>0.9980528511821974</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9741451209341118</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F114" t="n">
-        <v>0.900709219858156</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H114" t="n">
         <v>1041</v>
@@ -6024,19 +6024,19 @@
         <v>14</v>
       </c>
       <c r="J114" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K114" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L114" t="n">
-        <v>0.009347304821014405</v>
+        <v>0.01027334094047546</v>
       </c>
       <c r="M114" t="n">
-        <v>0.01502490043640137</v>
+        <v>0.02251291275024414</v>
       </c>
       <c r="N114" t="n">
-        <v>0.007440567016601562</v>
+        <v>0.007644891738891602</v>
       </c>
       <c r="O114" t="n">
         <v>10</v>
@@ -6058,34 +6058,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9741451209341118</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F115" t="n">
-        <v>0.900709219858156</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H115" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I115" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J115" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K115" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L115" t="n">
-        <v>0.008317359447479248</v>
+        <v>0.008018851041793824</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03483867645263672</v>
+        <v>0.02951145172119141</v>
       </c>
       <c r="N115" t="n">
-        <v>0.006473064422607422</v>
+        <v>0.00716090202331543</v>
       </c>
       <c r="O115" t="n">
         <v>10</v>
@@ -6128,13 +6128,13 @@
         <v>127</v>
       </c>
       <c r="L116" t="n">
-        <v>0.009222683906555175</v>
+        <v>0.0103843994140625</v>
       </c>
       <c r="M116" t="n">
-        <v>0.01883959770202637</v>
+        <v>0.03070569038391113</v>
       </c>
       <c r="N116" t="n">
-        <v>0.007538318634033203</v>
+        <v>0.008171319961547852</v>
       </c>
       <c r="O116" t="n">
         <v>11</v>
@@ -6156,34 +6156,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E117" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G117" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H117" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I117" t="n">
+        <v>13</v>
+      </c>
+      <c r="J117" t="n">
         <v>14</v>
       </c>
-      <c r="J117" t="n">
-        <v>15</v>
-      </c>
       <c r="K117" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L117" t="n">
-        <v>0.007719465970993042</v>
+        <v>0.008250301122665405</v>
       </c>
       <c r="M117" t="n">
-        <v>0.02977180480957031</v>
+        <v>0.03236889839172363</v>
       </c>
       <c r="N117" t="n">
-        <v>0.006486415863037109</v>
+        <v>0.007197380065917969</v>
       </c>
       <c r="O117" t="n">
         <v>11</v>
@@ -6205,13 +6205,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G118" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H118" t="n">
         <v>1043</v>
@@ -6220,19 +6220,19 @@
         <v>12</v>
       </c>
       <c r="J118" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K118" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L118" t="n">
-        <v>0.009305109262466431</v>
+        <v>0.01074601864814758</v>
       </c>
       <c r="M118" t="n">
-        <v>0.02311491966247559</v>
+        <v>0.04398322105407715</v>
       </c>
       <c r="N118" t="n">
-        <v>0.007745027542114258</v>
+        <v>0.008138179779052734</v>
       </c>
       <c r="O118" t="n">
         <v>12</v>
@@ -6275,13 +6275,13 @@
         <v>129</v>
       </c>
       <c r="L119" t="n">
-        <v>0.00853175973892212</v>
+        <v>0.01010124135017395</v>
       </c>
       <c r="M119" t="n">
-        <v>0.01662921905517578</v>
+        <v>0.03565430641174316</v>
       </c>
       <c r="N119" t="n">
-        <v>0.006468296051025391</v>
+        <v>0.007386445999145508</v>
       </c>
       <c r="O119" t="n">
         <v>12</v>
@@ -6303,19 +6303,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G120" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="H120" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I120" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J120" t="n">
         <v>16</v>
@@ -6324,13 +6324,13 @@
         <v>128</v>
       </c>
       <c r="L120" t="n">
-        <v>0.00976917815208435</v>
+        <v>0.01167053890228271</v>
       </c>
       <c r="M120" t="n">
-        <v>0.01910972595214844</v>
+        <v>0.04722142219543457</v>
       </c>
       <c r="N120" t="n">
-        <v>0.007552862167358398</v>
+        <v>0.008402824401855469</v>
       </c>
       <c r="O120" t="n">
         <v>13</v>
@@ -6352,19 +6352,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="G121" t="n">
         <v>0.9027777777777778</v>
       </c>
       <c r="H121" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J121" t="n">
         <v>14</v>
@@ -6373,13 +6373,13 @@
         <v>130</v>
       </c>
       <c r="L121" t="n">
-        <v>0.007673533201217652</v>
+        <v>0.008458362340927124</v>
       </c>
       <c r="M121" t="n">
-        <v>0.02571558952331543</v>
+        <v>0.04910421371459961</v>
       </c>
       <c r="N121" t="n">
-        <v>0.006450414657592773</v>
+        <v>0.007279157638549805</v>
       </c>
       <c r="O121" t="n">
         <v>13</v>
@@ -6401,34 +6401,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E122" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9202898550724637</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H122" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I122" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J122" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K122" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L122" t="n">
-        <v>0.009308443546295167</v>
+        <v>0.010561767578125</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03279352188110352</v>
+        <v>0.01861119270324707</v>
       </c>
       <c r="N122" t="n">
-        <v>0.007678508758544922</v>
+        <v>0.008899927139282227</v>
       </c>
       <c r="O122" t="n">
         <v>14</v>
@@ -6450,34 +6450,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H123" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J123" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K123" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L123" t="n">
-        <v>0.007908613920211792</v>
+        <v>0.007939617156982421</v>
       </c>
       <c r="M123" t="n">
-        <v>0.01487159729003906</v>
+        <v>0.01575994491577148</v>
       </c>
       <c r="N123" t="n">
-        <v>0.006485223770141602</v>
+        <v>0.007316827774047852</v>
       </c>
       <c r="O123" t="n">
         <v>14</v>
@@ -6520,13 +6520,13 @@
         <v>127</v>
       </c>
       <c r="L124" t="n">
-        <v>0.009528058052062988</v>
+        <v>0.01044185352325439</v>
       </c>
       <c r="M124" t="n">
-        <v>0.01525139808654785</v>
+        <v>0.02214860916137695</v>
       </c>
       <c r="N124" t="n">
-        <v>0.008211612701416016</v>
+        <v>0.007978677749633789</v>
       </c>
       <c r="O124" t="n">
         <v>15</v>
@@ -6548,13 +6548,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9741451209341118</v>
       </c>
       <c r="F125" t="n">
-        <v>0.903448275862069</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9097222222222222</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H125" t="n">
         <v>1041</v>
@@ -6563,19 +6563,19 @@
         <v>14</v>
       </c>
       <c r="J125" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K125" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L125" t="n">
-        <v>0.007503676652908325</v>
+        <v>0.009287715673446655</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04441547393798828</v>
+        <v>0.04931187629699707</v>
       </c>
       <c r="N125" t="n">
-        <v>0.006508111953735352</v>
+        <v>0.007509946823120117</v>
       </c>
       <c r="O125" t="n">
         <v>15</v>
@@ -6597,19 +6597,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G126" t="n">
         <v>0.8958333333333334</v>
       </c>
       <c r="H126" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J126" t="n">
         <v>15</v>
@@ -6618,13 +6618,13 @@
         <v>129</v>
       </c>
       <c r="L126" t="n">
-        <v>0.009528579711914063</v>
+        <v>0.01130692982673645</v>
       </c>
       <c r="M126" t="n">
-        <v>0.01907587051391602</v>
+        <v>0.03792309761047363</v>
       </c>
       <c r="N126" t="n">
-        <v>0.008017539978027344</v>
+        <v>0.008919239044189453</v>
       </c>
       <c r="O126" t="n">
         <v>16</v>
@@ -6646,34 +6646,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9799833194328608</v>
+        <v>0.9783152627189324</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9097222222222222</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.9097222222222222</v>
       </c>
       <c r="H127" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I127" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J127" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K127" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L127" t="n">
-        <v>0.008107064723968506</v>
+        <v>0.009116997957229615</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04429054260253906</v>
+        <v>0.02745604515075684</v>
       </c>
       <c r="N127" t="n">
-        <v>0.006670236587524414</v>
+        <v>0.007917642593383789</v>
       </c>
       <c r="O127" t="n">
         <v>16</v>
@@ -6695,34 +6695,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F128" t="n">
-        <v>0.927007299270073</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="G128" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="I128" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K128" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01000760865211487</v>
+        <v>0.01184650993347168</v>
       </c>
       <c r="M128" t="n">
-        <v>0.02281761169433594</v>
+        <v>0.03951478004455566</v>
       </c>
       <c r="N128" t="n">
-        <v>0.008345365524291992</v>
+        <v>0.008859872817993164</v>
       </c>
       <c r="O128" t="n">
         <v>17</v>
@@ -6744,13 +6744,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G129" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H129" t="n">
         <v>1042</v>
@@ -6759,19 +6759,19 @@
         <v>13</v>
       </c>
       <c r="J129" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K129" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L129" t="n">
-        <v>0.007528537034988404</v>
+        <v>0.008672947168350219</v>
       </c>
       <c r="M129" t="n">
-        <v>0.02427268028259277</v>
+        <v>0.01806926727294922</v>
       </c>
       <c r="N129" t="n">
-        <v>0.00667262077331543</v>
+        <v>0.00780034065246582</v>
       </c>
       <c r="O129" t="n">
         <v>17</v>
@@ -6793,34 +6793,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9733110925771477</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="G130" t="n">
-        <v>0.875</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I130" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J130" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K130" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0102535834312439</v>
+        <v>0.01221783113479614</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0261235237121582</v>
+        <v>0.03971171379089355</v>
       </c>
       <c r="N130" t="n">
-        <v>0.008179664611816406</v>
+        <v>0.009600162506103516</v>
       </c>
       <c r="O130" t="n">
         <v>18</v>
@@ -6863,13 +6863,13 @@
         <v>129</v>
       </c>
       <c r="L131" t="n">
-        <v>0.008893932104110719</v>
+        <v>0.009779497623443604</v>
       </c>
       <c r="M131" t="n">
-        <v>0.02895236015319824</v>
+        <v>0.05115962028503418</v>
       </c>
       <c r="N131" t="n">
-        <v>0.006811618804931641</v>
+        <v>0.007914066314697266</v>
       </c>
       <c r="O131" t="n">
         <v>18</v>
@@ -6891,19 +6891,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9078014184397163</v>
       </c>
       <c r="G132" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="H132" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I132" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J132" t="n">
         <v>16</v>
@@ -6912,13 +6912,13 @@
         <v>128</v>
       </c>
       <c r="L132" t="n">
-        <v>0.01014872598648071</v>
+        <v>0.01100380778312683</v>
       </c>
       <c r="M132" t="n">
-        <v>0.02715158462524414</v>
+        <v>0.03482365608215332</v>
       </c>
       <c r="N132" t="n">
-        <v>0.008436679840087891</v>
+        <v>0.008740663528442383</v>
       </c>
       <c r="O132" t="n">
         <v>19</v>
@@ -6961,13 +6961,13 @@
         <v>129</v>
       </c>
       <c r="L133" t="n">
-        <v>0.007465006828308106</v>
+        <v>0.008354563474655151</v>
       </c>
       <c r="M133" t="n">
-        <v>0.01287579536437988</v>
+        <v>0.01344418525695801</v>
       </c>
       <c r="N133" t="n">
-        <v>0.006805419921875</v>
+        <v>0.007493257522583008</v>
       </c>
       <c r="O133" t="n">
         <v>19</v>
@@ -6989,13 +6989,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E134" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9136690647482014</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G134" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H134" t="n">
         <v>1043</v>
@@ -7004,19 +7004,19 @@
         <v>12</v>
       </c>
       <c r="J134" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K134" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L134" t="n">
-        <v>0.01003784084320068</v>
+        <v>0.01088958954811096</v>
       </c>
       <c r="M134" t="n">
-        <v>0.01610684394836426</v>
+        <v>0.02171540260314941</v>
       </c>
       <c r="N134" t="n">
-        <v>0.008465766906738281</v>
+        <v>0.008206605911254883</v>
       </c>
       <c r="O134" t="n">
         <v>20</v>
@@ -7038,13 +7038,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H135" t="n">
         <v>1042</v>
@@ -7053,19 +7053,19 @@
         <v>13</v>
       </c>
       <c r="J135" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K135" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L135" t="n">
-        <v>0.007599493265151977</v>
+        <v>0.009409281015396119</v>
       </c>
       <c r="M135" t="n">
-        <v>0.01414990425109863</v>
+        <v>0.03866410255432129</v>
       </c>
       <c r="N135" t="n">
-        <v>0.006802558898925781</v>
+        <v>0.007456302642822266</v>
       </c>
       <c r="O135" t="n">
         <v>20</v>
@@ -7087,34 +7087,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9741451209341118</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8951048951048951</v>
+        <v>0.903448275862069</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9097222222222222</v>
       </c>
       <c r="H136" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I136" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J136" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K136" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L136" t="n">
-        <v>0.009621511936187745</v>
+        <v>0.01041829991340637</v>
       </c>
       <c r="M136" t="n">
-        <v>0.01316237449645996</v>
+        <v>0.02054047584533691</v>
       </c>
       <c r="N136" t="n">
-        <v>0.008319377899169922</v>
+        <v>0.008951902389526367</v>
       </c>
       <c r="O136" t="n">
         <v>21</v>
@@ -7136,19 +7136,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9783152627189324</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="G137" t="n">
         <v>0.8958333333333334</v>
       </c>
       <c r="H137" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I137" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J137" t="n">
         <v>15</v>
@@ -7157,13 +7157,13 @@
         <v>129</v>
       </c>
       <c r="L137" t="n">
-        <v>0.007972522974014282</v>
+        <v>0.009385385513305665</v>
       </c>
       <c r="M137" t="n">
-        <v>0.01906561851501465</v>
+        <v>0.04157495498657227</v>
       </c>
       <c r="N137" t="n">
-        <v>0.006462812423706055</v>
+        <v>0.007512569427490234</v>
       </c>
       <c r="O137" t="n">
         <v>21</v>
@@ -7185,34 +7185,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9724770642201835</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G138" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H138" t="n">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="I138" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J138" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K138" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L138" t="n">
-        <v>0.009815749645233154</v>
+        <v>0.01030765438079834</v>
       </c>
       <c r="M138" t="n">
-        <v>0.02071523666381836</v>
+        <v>0.02629303932189941</v>
       </c>
       <c r="N138" t="n">
-        <v>0.008199930191040039</v>
+        <v>0.008478164672851562</v>
       </c>
       <c r="O138" t="n">
         <v>22</v>
@@ -7255,13 +7255,13 @@
         <v>129</v>
       </c>
       <c r="L139" t="n">
-        <v>0.008186943531036377</v>
+        <v>0.008779550552368164</v>
       </c>
       <c r="M139" t="n">
-        <v>0.01731324195861816</v>
+        <v>0.0745384693145752</v>
       </c>
       <c r="N139" t="n">
-        <v>0.006523609161376953</v>
+        <v>0.007219314575195312</v>
       </c>
       <c r="O139" t="n">
         <v>22</v>
@@ -7286,31 +7286,31 @@
         <v>0.97581317764804</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H140" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I140" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J140" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K140" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L140" t="n">
-        <v>0.01056528329849243</v>
+        <v>0.01100247645378113</v>
       </c>
       <c r="M140" t="n">
-        <v>0.02048921585083008</v>
+        <v>0.04568839073181152</v>
       </c>
       <c r="N140" t="n">
-        <v>0.007636785507202148</v>
+        <v>0.008463859558105469</v>
       </c>
       <c r="O140" t="n">
         <v>23</v>
@@ -7332,13 +7332,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E141" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G141" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H141" t="n">
         <v>1041</v>
@@ -7347,19 +7347,19 @@
         <v>14</v>
       </c>
       <c r="J141" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K141" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L141" t="n">
-        <v>0.008097399950027466</v>
+        <v>0.009437739372253418</v>
       </c>
       <c r="M141" t="n">
-        <v>0.01732158660888672</v>
+        <v>0.09554815292358398</v>
       </c>
       <c r="N141" t="n">
-        <v>0.006474018096923828</v>
+        <v>0.006822347640991211</v>
       </c>
       <c r="O141" t="n">
         <v>23</v>
@@ -7381,13 +7381,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9733110925771477</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="G142" t="n">
-        <v>0.875</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H142" t="n">
         <v>1041</v>
@@ -7396,19 +7396,19 @@
         <v>14</v>
       </c>
       <c r="J142" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K142" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L142" t="n">
-        <v>0.009237489223480225</v>
+        <v>0.01092638325691223</v>
       </c>
       <c r="M142" t="n">
-        <v>0.01674461364746094</v>
+        <v>0.05568265914916992</v>
       </c>
       <c r="N142" t="n">
-        <v>0.00740814208984375</v>
+        <v>0.007536649703979492</v>
       </c>
       <c r="O142" t="n">
         <v>24</v>
@@ -7451,13 +7451,13 @@
         <v>129</v>
       </c>
       <c r="L143" t="n">
-        <v>0.007266059398651123</v>
+        <v>0.008800654649734497</v>
       </c>
       <c r="M143" t="n">
-        <v>0.01323604583740234</v>
+        <v>0.05208945274353027</v>
       </c>
       <c r="N143" t="n">
-        <v>0.006457090377807617</v>
+        <v>0.006618022918701172</v>
       </c>
       <c r="O143" t="n">
         <v>24</v>
@@ -7479,34 +7479,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9783152627189324</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F144" t="n">
-        <v>0.927536231884058</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G144" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H144" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I144" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J144" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K144" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L144" t="n">
-        <v>0.009737430810928345</v>
+        <v>0.009822336673736573</v>
       </c>
       <c r="M144" t="n">
-        <v>0.01540589332580566</v>
+        <v>0.01773929595947266</v>
       </c>
       <c r="N144" t="n">
-        <v>0.007497310638427734</v>
+        <v>0.007893562316894531</v>
       </c>
       <c r="O144" t="n">
         <v>25</v>
@@ -7528,34 +7528,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9783152627189324</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9154929577464789</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G145" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H145" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I145" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J145" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K145" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L145" t="n">
-        <v>0.007386950254440308</v>
+        <v>0.007895225048065186</v>
       </c>
       <c r="M145" t="n">
-        <v>0.01314234733581543</v>
+        <v>0.01396274566650391</v>
       </c>
       <c r="N145" t="n">
-        <v>0.006474018096923828</v>
+        <v>0.006598472595214844</v>
       </c>
       <c r="O145" t="n">
         <v>25</v>
@@ -7580,31 +7580,31 @@
         <v>0.9774812343619683</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G146" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H146" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J146" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K146" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L146" t="n">
-        <v>0.01004264259338379</v>
+        <v>0.01005832433700561</v>
       </c>
       <c r="M146" t="n">
-        <v>0.03628659248352051</v>
+        <v>0.03197336196899414</v>
       </c>
       <c r="N146" t="n">
-        <v>0.007609128952026367</v>
+        <v>0.008082866668701172</v>
       </c>
       <c r="O146" t="n">
         <v>26</v>
@@ -7623,37 +7623,37 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9980528511821974</v>
+        <v>0.9983310152990265</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H147" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I147" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J147" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K147" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L147" t="n">
-        <v>0.008849121809005737</v>
+        <v>0.008211783647537231</v>
       </c>
       <c r="M147" t="n">
-        <v>0.04622578620910645</v>
+        <v>0.02732396125793457</v>
       </c>
       <c r="N147" t="n">
-        <v>0.006481409072875977</v>
+        <v>0.007102727890014648</v>
       </c>
       <c r="O147" t="n">
         <v>26</v>
@@ -7675,34 +7675,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9733110925771477</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8943661971830986</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.875</v>
       </c>
       <c r="H148" t="n">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="I148" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J148" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K148" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L148" t="n">
-        <v>0.010116459608078</v>
+        <v>0.01087674117088318</v>
       </c>
       <c r="M148" t="n">
-        <v>0.04570627212524414</v>
+        <v>0.05561494827270508</v>
       </c>
       <c r="N148" t="n">
-        <v>0.007999420166015625</v>
+        <v>0.007959127426147461</v>
       </c>
       <c r="O148" t="n">
         <v>27</v>
@@ -7724,34 +7724,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9783152627189324</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9071428571428571</v>
+        <v>0.927536231884058</v>
       </c>
       <c r="G149" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H149" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="I149" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J149" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K149" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L149" t="n">
-        <v>0.007625787258148193</v>
+        <v>0.009698564767837524</v>
       </c>
       <c r="M149" t="n">
-        <v>0.01299834251403809</v>
+        <v>0.02018594741821289</v>
       </c>
       <c r="N149" t="n">
-        <v>0.00644373893737793</v>
+        <v>0.007248163223266602</v>
       </c>
       <c r="O149" t="n">
         <v>27</v>
@@ -7773,34 +7773,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9783152627189324</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9154929577464789</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J150" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K150" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L150" t="n">
-        <v>0.009388669490814209</v>
+        <v>0.01070610189437866</v>
       </c>
       <c r="M150" t="n">
-        <v>0.01685428619384766</v>
+        <v>0.0314176082611084</v>
       </c>
       <c r="N150" t="n">
-        <v>0.007623434066772461</v>
+        <v>0.00785064697265625</v>
       </c>
       <c r="O150" t="n">
         <v>28</v>
@@ -7822,34 +7822,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E151" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G151" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H151" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I151" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J151" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K151" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L151" t="n">
-        <v>0.007460449457168579</v>
+        <v>0.008126844167709351</v>
       </c>
       <c r="M151" t="n">
-        <v>0.01346993446350098</v>
+        <v>0.01358270645141602</v>
       </c>
       <c r="N151" t="n">
-        <v>0.006477594375610352</v>
+        <v>0.00730586051940918</v>
       </c>
       <c r="O151" t="n">
         <v>28</v>
@@ -7871,34 +7871,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9741451209341118</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="G152" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H152" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I152" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K152" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L152" t="n">
-        <v>0.01107248950004578</v>
+        <v>0.01087731385231018</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0241091251373291</v>
+        <v>0.03537797927856445</v>
       </c>
       <c r="N152" t="n">
-        <v>0.007500171661376953</v>
+        <v>0.008070230484008789</v>
       </c>
       <c r="O152" t="n">
         <v>29</v>
@@ -7920,19 +7920,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="G153" t="n">
         <v>0.9027777777777778</v>
       </c>
       <c r="H153" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J153" t="n">
         <v>14</v>
@@ -7941,13 +7941,13 @@
         <v>130</v>
       </c>
       <c r="L153" t="n">
-        <v>0.007823796033859253</v>
+        <v>0.009303601264953613</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0148158073425293</v>
+        <v>0.048065185546875</v>
       </c>
       <c r="N153" t="n">
-        <v>0.006478071212768555</v>
+        <v>0.007284402847290039</v>
       </c>
       <c r="O153" t="n">
         <v>29</v>
@@ -7969,19 +7969,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F154" t="n">
-        <v>0.920863309352518</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G154" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="H154" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J154" t="n">
         <v>16</v>
@@ -7990,13 +7990,13 @@
         <v>128</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0107944130897522</v>
+        <v>0.009776867151260376</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0305328369140625</v>
+        <v>0.01612281799316406</v>
       </c>
       <c r="N154" t="n">
-        <v>0.007975101470947266</v>
+        <v>0.007831096649169922</v>
       </c>
       <c r="O154" t="n">
         <v>30</v>
@@ -8018,34 +8018,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9791492910758965</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F155" t="n">
-        <v>0.916083916083916</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="G155" t="n">
-        <v>0.9097222222222222</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H155" t="n">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="I155" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K155" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L155" t="n">
-        <v>0.008346072435379027</v>
+        <v>0.008516917705535889</v>
       </c>
       <c r="M155" t="n">
-        <v>0.04503726959228516</v>
+        <v>0.02892827987670898</v>
       </c>
       <c r="N155" t="n">
-        <v>0.006703376770019531</v>
+        <v>0.007199287414550781</v>
       </c>
       <c r="O155" t="n">
         <v>30</v>
@@ -8088,13 +8088,13 @@
         <v>127</v>
       </c>
       <c r="L156" t="n">
-        <v>0.01061780309677124</v>
+        <v>0.01057425355911255</v>
       </c>
       <c r="M156" t="n">
-        <v>0.04829287528991699</v>
+        <v>0.0417029857635498</v>
       </c>
       <c r="N156" t="n">
-        <v>0.007518529891967773</v>
+        <v>0.008144140243530273</v>
       </c>
       <c r="O156" t="n">
         <v>31</v>
@@ -8116,19 +8116,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8972602739726028</v>
+        <v>0.903448275862069</v>
       </c>
       <c r="G157" t="n">
         <v>0.9097222222222222</v>
       </c>
       <c r="H157" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I157" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J157" t="n">
         <v>13</v>
@@ -8137,13 +8137,13 @@
         <v>131</v>
       </c>
       <c r="L157" t="n">
-        <v>0.01021975827217102</v>
+        <v>0.008616970539093018</v>
       </c>
       <c r="M157" t="n">
-        <v>0.03606390953063965</v>
+        <v>0.01681733131408691</v>
       </c>
       <c r="N157" t="n">
-        <v>0.006806612014770508</v>
+        <v>0.007329702377319336</v>
       </c>
       <c r="O157" t="n">
         <v>31</v>
@@ -8165,34 +8165,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9724770642201835</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8992805755395683</v>
+        <v>0.9202898550724637</v>
       </c>
       <c r="G158" t="n">
-        <v>0.8680555555555556</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H158" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="I158" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K158" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L158" t="n">
-        <v>0.01021532845497131</v>
+        <v>0.01162003874778748</v>
       </c>
       <c r="M158" t="n">
-        <v>0.02992415428161621</v>
+        <v>0.02791500091552734</v>
       </c>
       <c r="N158" t="n">
-        <v>0.008064985275268555</v>
+        <v>0.009011745452880859</v>
       </c>
       <c r="O158" t="n">
         <v>32</v>
@@ -8214,34 +8214,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9783152627189324</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="G159" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H159" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I159" t="n">
+        <v>12</v>
+      </c>
+      <c r="J159" t="n">
         <v>14</v>
       </c>
-      <c r="J159" t="n">
-        <v>16</v>
-      </c>
       <c r="K159" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L159" t="n">
-        <v>0.007834929943084717</v>
+        <v>0.01358685779571533</v>
       </c>
       <c r="M159" t="n">
-        <v>0.02309179306030273</v>
+        <v>0.1043057441711426</v>
       </c>
       <c r="N159" t="n">
-        <v>0.006681680679321289</v>
+        <v>0.0078125</v>
       </c>
       <c r="O159" t="n">
         <v>32</v>
@@ -8263,19 +8263,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E160" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G160" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="H160" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J160" t="n">
         <v>16</v>
@@ -8284,13 +8284,13 @@
         <v>128</v>
       </c>
       <c r="L160" t="n">
-        <v>0.01165486025810242</v>
+        <v>0.0203740017414093</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06105661392211914</v>
+        <v>0.1892604827880859</v>
       </c>
       <c r="N160" t="n">
-        <v>0.007798671722412109</v>
+        <v>0.009526968002319336</v>
       </c>
       <c r="O160" t="n">
         <v>33</v>
@@ -8312,19 +8312,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9791492910758965</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9219858156028369</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="G161" t="n">
         <v>0.9027777777777778</v>
       </c>
       <c r="H161" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I161" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J161" t="n">
         <v>14</v>
@@ -8333,13 +8333,13 @@
         <v>130</v>
       </c>
       <c r="L161" t="n">
-        <v>0.009894426822662353</v>
+        <v>0.01726909470558166</v>
       </c>
       <c r="M161" t="n">
-        <v>0.04443764686584473</v>
+        <v>0.1258602142333984</v>
       </c>
       <c r="N161" t="n">
-        <v>0.006968259811401367</v>
+        <v>0.008702754974365234</v>
       </c>
       <c r="O161" t="n">
         <v>33</v>
@@ -8361,34 +8361,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9791492910758965</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9219858156028369</v>
+        <v>0.9078014184397163</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H162" t="n">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I162" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J162" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K162" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L162" t="n">
-        <v>0.01130617451667786</v>
+        <v>0.01371415591239929</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07131338119506836</v>
+        <v>0.0249330997467041</v>
       </c>
       <c r="N162" t="n">
-        <v>0.008169889450073242</v>
+        <v>0.009641170501708984</v>
       </c>
       <c r="O162" t="n">
         <v>34</v>
@@ -8410,19 +8410,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E163" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G163" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="H163" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I163" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J163" t="n">
         <v>16</v>
@@ -8431,13 +8431,13 @@
         <v>128</v>
       </c>
       <c r="L163" t="n">
-        <v>0.008531118869781494</v>
+        <v>0.009387260675430298</v>
       </c>
       <c r="M163" t="n">
-        <v>0.01542997360229492</v>
+        <v>0.01724648475646973</v>
       </c>
       <c r="N163" t="n">
-        <v>0.007205009460449219</v>
+        <v>0.007757186889648438</v>
       </c>
       <c r="O163" t="n">
         <v>34</v>
@@ -8459,13 +8459,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9071428571428571</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="G164" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H164" t="n">
         <v>1042</v>
@@ -8474,19 +8474,19 @@
         <v>13</v>
       </c>
       <c r="J164" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K164" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L164" t="n">
-        <v>0.01017280507087708</v>
+        <v>0.01710597467422485</v>
       </c>
       <c r="M164" t="n">
-        <v>0.02598834037780762</v>
+        <v>0.04163265228271484</v>
       </c>
       <c r="N164" t="n">
-        <v>0.008177995681762695</v>
+        <v>0.0105278491973877</v>
       </c>
       <c r="O164" t="n">
         <v>35</v>
@@ -8508,13 +8508,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9749791492910759</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G165" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H165" t="n">
         <v>1041</v>
@@ -8523,19 +8523,19 @@
         <v>14</v>
       </c>
       <c r="J165" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K165" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L165" t="n">
-        <v>0.008037298202514649</v>
+        <v>0.01001450729370117</v>
       </c>
       <c r="M165" t="n">
-        <v>0.02358269691467285</v>
+        <v>0.02350664138793945</v>
       </c>
       <c r="N165" t="n">
-        <v>0.007004022598266602</v>
+        <v>0.007761716842651367</v>
       </c>
       <c r="O165" t="n">
         <v>35</v>
@@ -8560,31 +8560,31 @@
         <v>0.97581317764804</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9078014184397163</v>
       </c>
       <c r="G166" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H166" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I166" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J166" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K166" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L166" t="n">
-        <v>0.01188872265815735</v>
+        <v>0.01433832144737244</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0663609504699707</v>
+        <v>0.02900362014770508</v>
       </c>
       <c r="N166" t="n">
-        <v>0.007547616958618164</v>
+        <v>0.00937199592590332</v>
       </c>
       <c r="O166" t="n">
         <v>36</v>
@@ -8606,34 +8606,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E167" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G167" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H167" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I167" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J167" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K167" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L167" t="n">
-        <v>0.01366585350036621</v>
+        <v>0.00878682565689087</v>
       </c>
       <c r="M167" t="n">
-        <v>0.06423282623291016</v>
+        <v>0.01745128631591797</v>
       </c>
       <c r="N167" t="n">
-        <v>0.007440805435180664</v>
+        <v>0.00739741325378418</v>
       </c>
       <c r="O167" t="n">
         <v>36</v>
@@ -8655,34 +8655,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9741451209341118</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9064748201438849</v>
+        <v>0.920863309352518</v>
       </c>
       <c r="G168" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H168" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I168" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J168" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K168" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L168" t="n">
-        <v>0.01134409666061401</v>
+        <v>0.01429835820198059</v>
       </c>
       <c r="M168" t="n">
-        <v>0.05752253532409668</v>
+        <v>0.0379490852355957</v>
       </c>
       <c r="N168" t="n">
-        <v>0.008478879928588867</v>
+        <v>0.008500099182128906</v>
       </c>
       <c r="O168" t="n">
         <v>37</v>
@@ -8704,34 +8704,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9791492910758965</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9280575539568345</v>
+        <v>0.9071428571428571</v>
       </c>
       <c r="G169" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H169" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I169" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J169" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K169" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L169" t="n">
-        <v>0.01024776840209961</v>
+        <v>0.01004247379302979</v>
       </c>
       <c r="M169" t="n">
-        <v>0.03929591178894043</v>
+        <v>0.02366995811462402</v>
       </c>
       <c r="N169" t="n">
-        <v>0.007255315780639648</v>
+        <v>0.007177829742431641</v>
       </c>
       <c r="O169" t="n">
         <v>37</v>
@@ -8753,34 +8753,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9724770642201835</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G170" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H170" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I170" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J170" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K170" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L170" t="n">
-        <v>0.01553355288505554</v>
+        <v>0.01406909894943237</v>
       </c>
       <c r="M170" t="n">
-        <v>0.05048799514770508</v>
+        <v>0.03306365013122559</v>
       </c>
       <c r="N170" t="n">
-        <v>0.009639739990234375</v>
+        <v>0.008392572402954102</v>
       </c>
       <c r="O170" t="n">
         <v>38</v>
@@ -8823,13 +8823,13 @@
         <v>130</v>
       </c>
       <c r="L171" t="n">
-        <v>0.009061198711395263</v>
+        <v>0.009911294937133788</v>
       </c>
       <c r="M171" t="n">
-        <v>0.04835891723632812</v>
+        <v>0.04841184616088867</v>
       </c>
       <c r="N171" t="n">
-        <v>0.006851911544799805</v>
+        <v>0.006836891174316406</v>
       </c>
       <c r="O171" t="n">
         <v>38</v>
@@ -8851,13 +8851,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G172" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="H172" t="n">
         <v>1043</v>
@@ -8866,19 +8866,19 @@
         <v>12</v>
       </c>
       <c r="J172" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K172" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L172" t="n">
-        <v>0.009022048473358154</v>
+        <v>0.01204941821098328</v>
       </c>
       <c r="M172" t="n">
-        <v>0.02487373352050781</v>
+        <v>0.02436137199401855</v>
       </c>
       <c r="N172" t="n">
-        <v>0.007762670516967773</v>
+        <v>0.008324146270751953</v>
       </c>
       <c r="O172" t="n">
         <v>39</v>
@@ -8900,13 +8900,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F173" t="n">
-        <v>0.903448275862069</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G173" t="n">
-        <v>0.9097222222222222</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H173" t="n">
         <v>1041</v>
@@ -8915,19 +8915,19 @@
         <v>14</v>
       </c>
       <c r="J173" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K173" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L173" t="n">
-        <v>0.009058676958084107</v>
+        <v>0.008705832719802856</v>
       </c>
       <c r="M173" t="n">
-        <v>0.02591967582702637</v>
+        <v>0.02027583122253418</v>
       </c>
       <c r="N173" t="n">
-        <v>0.006805896759033203</v>
+        <v>0.006531953811645508</v>
       </c>
       <c r="O173" t="n">
         <v>39</v>
@@ -8949,34 +8949,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9733110925771477</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H174" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J174" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K174" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L174" t="n">
-        <v>0.01045683526992798</v>
+        <v>0.01232450985908508</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0586860179901123</v>
+        <v>0.02548360824584961</v>
       </c>
       <c r="N174" t="n">
-        <v>0.008156776428222656</v>
+        <v>0.008341789245605469</v>
       </c>
       <c r="O174" t="n">
         <v>40</v>
@@ -8998,19 +8998,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E175" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="G175" t="n">
         <v>0.8958333333333334</v>
       </c>
       <c r="H175" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I175" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J175" t="n">
         <v>15</v>
@@ -9019,13 +9019,13 @@
         <v>129</v>
       </c>
       <c r="L175" t="n">
-        <v>0.01247538423538208</v>
+        <v>0.008449199914932251</v>
       </c>
       <c r="M175" t="n">
-        <v>0.05743265151977539</v>
+        <v>0.02358436584472656</v>
       </c>
       <c r="N175" t="n">
-        <v>0.00736236572265625</v>
+        <v>0.006278276443481445</v>
       </c>
       <c r="O175" t="n">
         <v>40</v>
@@ -9047,34 +9047,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9741451209341118</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9064748201438849</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="G176" t="n">
-        <v>0.875</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H176" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="I176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K176" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0126911129951477</v>
+        <v>0.01298978137969971</v>
       </c>
       <c r="M176" t="n">
-        <v>0.06865739822387695</v>
+        <v>0.05801033973693848</v>
       </c>
       <c r="N176" t="n">
-        <v>0.00814366340637207</v>
+        <v>0.007442951202392578</v>
       </c>
       <c r="O176" t="n">
         <v>41</v>
@@ -9096,13 +9096,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="G177" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H177" t="n">
         <v>1042</v>
@@ -9111,19 +9111,19 @@
         <v>13</v>
       </c>
       <c r="J177" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K177" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L177" t="n">
-        <v>0.01091733193397522</v>
+        <v>0.008738268852233886</v>
       </c>
       <c r="M177" t="n">
-        <v>0.04382920265197754</v>
+        <v>0.02836418151855469</v>
       </c>
       <c r="N177" t="n">
-        <v>0.007423639297485352</v>
+        <v>0.006633281707763672</v>
       </c>
       <c r="O177" t="n">
         <v>41</v>
@@ -9145,19 +9145,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E178" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9749791492910759</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G178" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="H178" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I178" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J178" t="n">
         <v>16</v>
@@ -9166,13 +9166,13 @@
         <v>128</v>
       </c>
       <c r="L178" t="n">
-        <v>0.009974825859069824</v>
+        <v>0.01132840180397034</v>
       </c>
       <c r="M178" t="n">
-        <v>0.02797603607177734</v>
+        <v>0.02530908584594727</v>
       </c>
       <c r="N178" t="n">
-        <v>0.008015155792236328</v>
+        <v>0.007895708084106445</v>
       </c>
       <c r="O178" t="n">
         <v>42</v>
@@ -9194,19 +9194,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.97581317764804</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G179" t="n">
         <v>0.8958333333333334</v>
       </c>
       <c r="H179" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I179" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J179" t="n">
         <v>15</v>
@@ -9215,13 +9215,13 @@
         <v>129</v>
       </c>
       <c r="L179" t="n">
-        <v>0.009702655076980591</v>
+        <v>0.008346027374267578</v>
       </c>
       <c r="M179" t="n">
-        <v>0.05213189125061035</v>
+        <v>0.01553678512573242</v>
       </c>
       <c r="N179" t="n">
-        <v>0.007109642028808594</v>
+        <v>0.006382226943969727</v>
       </c>
       <c r="O179" t="n">
         <v>42</v>
@@ -9243,34 +9243,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9724770642201835</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="G180" t="n">
-        <v>0.875</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I180" t="n">
+        <v>13</v>
+      </c>
+      <c r="J180" t="n">
         <v>15</v>
       </c>
-      <c r="J180" t="n">
-        <v>18</v>
-      </c>
       <c r="K180" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0125028657913208</v>
+        <v>0.01169342136383057</v>
       </c>
       <c r="M180" t="n">
-        <v>0.03980088233947754</v>
+        <v>0.02587199211120605</v>
       </c>
       <c r="N180" t="n">
-        <v>0.008137941360473633</v>
+        <v>0.007462024688720703</v>
       </c>
       <c r="O180" t="n">
         <v>43</v>
@@ -9313,13 +9313,13 @@
         <v>130</v>
       </c>
       <c r="L181" t="n">
-        <v>0.008351113796234131</v>
+        <v>0.008109687805175781</v>
       </c>
       <c r="M181" t="n">
-        <v>0.02363491058349609</v>
+        <v>0.01506781578063965</v>
       </c>
       <c r="N181" t="n">
-        <v>0.006957054138183594</v>
+        <v>0.006345748901367188</v>
       </c>
       <c r="O181" t="n">
         <v>43</v>
@@ -9341,34 +9341,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E182" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9716430358632193</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G182" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8680555555555556</v>
       </c>
       <c r="H182" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I182" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J182" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K182" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L182" t="n">
-        <v>0.01042253732681274</v>
+        <v>0.01295620894432068</v>
       </c>
       <c r="M182" t="n">
-        <v>0.04249143600463867</v>
+        <v>0.03101897239685059</v>
       </c>
       <c r="N182" t="n">
-        <v>0.007499456405639648</v>
+        <v>0.00746917724609375</v>
       </c>
       <c r="O182" t="n">
         <v>44</v>
@@ -9411,13 +9411,13 @@
         <v>129</v>
       </c>
       <c r="L183" t="n">
-        <v>0.007363362073898315</v>
+        <v>0.008425342559814452</v>
       </c>
       <c r="M183" t="n">
-        <v>0.01078963279724121</v>
+        <v>0.01453185081481934</v>
       </c>
       <c r="N183" t="n">
-        <v>0.006442785263061523</v>
+        <v>0.006435155868530273</v>
       </c>
       <c r="O183" t="n">
         <v>44</v>
@@ -9439,19 +9439,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9774812343619683</v>
+        <v>0.9741451209341118</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9064748201438849</v>
       </c>
       <c r="G184" t="n">
         <v>0.875</v>
       </c>
       <c r="H184" t="n">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I184" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J184" t="n">
         <v>18</v>
@@ -9460,13 +9460,13 @@
         <v>126</v>
       </c>
       <c r="L184" t="n">
-        <v>0.008830409049987793</v>
+        <v>0.01317886829376221</v>
       </c>
       <c r="M184" t="n">
-        <v>0.01880455017089844</v>
+        <v>0.02713227272033691</v>
       </c>
       <c r="N184" t="n">
-        <v>0.007473230361938477</v>
+        <v>0.007974147796630859</v>
       </c>
       <c r="O184" t="n">
         <v>45</v>
@@ -9488,13 +9488,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9741451209341118</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.8819444444444444</v>
       </c>
       <c r="H185" t="n">
         <v>1041</v>
@@ -9503,19 +9503,19 @@
         <v>14</v>
       </c>
       <c r="J185" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K185" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L185" t="n">
-        <v>0.007649764299392701</v>
+        <v>0.00894352388381958</v>
       </c>
       <c r="M185" t="n">
-        <v>0.01500844955444336</v>
+        <v>0.0262610912322998</v>
       </c>
       <c r="N185" t="n">
-        <v>0.006468534469604492</v>
+        <v>0.006679773330688477</v>
       </c>
       <c r="O185" t="n">
         <v>45</v>
@@ -9540,31 +9540,31 @@
         <v>0.97581317764804</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9197080291970803</v>
+        <v>0.9020979020979021</v>
       </c>
       <c r="G186" t="n">
-        <v>0.875</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="H186" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I186" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J186" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K186" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L186" t="n">
-        <v>0.009184058427810669</v>
+        <v>0.01231227421760559</v>
       </c>
       <c r="M186" t="n">
-        <v>0.03330206871032715</v>
+        <v>0.02717232704162598</v>
       </c>
       <c r="N186" t="n">
-        <v>0.007526397705078125</v>
+        <v>0.007854938507080078</v>
       </c>
       <c r="O186" t="n">
         <v>46</v>
@@ -9586,19 +9586,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9791492910758965</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F187" t="n">
-        <v>0.916083916083916</v>
+        <v>0.903448275862069</v>
       </c>
       <c r="G187" t="n">
         <v>0.9097222222222222</v>
       </c>
       <c r="H187" t="n">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I187" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J187" t="n">
         <v>13</v>
@@ -9607,13 +9607,13 @@
         <v>131</v>
       </c>
       <c r="L187" t="n">
-        <v>0.00858179521560669</v>
+        <v>0.008206853628158569</v>
       </c>
       <c r="M187" t="n">
-        <v>0.02746963500976562</v>
+        <v>0.01282382011413574</v>
       </c>
       <c r="N187" t="n">
-        <v>0.006487369537353516</v>
+        <v>0.006551027297973633</v>
       </c>
       <c r="O187" t="n">
         <v>46</v>
@@ -9635,19 +9635,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E188" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9766472060050042</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G188" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="H188" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="I188" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J188" t="n">
         <v>16</v>
@@ -9656,13 +9656,13 @@
         <v>128</v>
       </c>
       <c r="L188" t="n">
-        <v>0.01745131993293762</v>
+        <v>0.01662641096115112</v>
       </c>
       <c r="M188" t="n">
-        <v>0.06586456298828125</v>
+        <v>0.05330514907836914</v>
       </c>
       <c r="N188" t="n">
-        <v>0.008249521255493164</v>
+        <v>0.008058309555053711</v>
       </c>
       <c r="O188" t="n">
         <v>47</v>
@@ -9687,31 +9687,31 @@
         <v>0.97581317764804</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="G189" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="H189" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I189" t="n">
+        <v>15</v>
+      </c>
+      <c r="J189" t="n">
         <v>14</v>
       </c>
-      <c r="J189" t="n">
-        <v>15</v>
-      </c>
       <c r="K189" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L189" t="n">
-        <v>0.01132575535774231</v>
+        <v>0.009864556550979614</v>
       </c>
       <c r="M189" t="n">
-        <v>0.04198384284973145</v>
+        <v>0.02353191375732422</v>
       </c>
       <c r="N189" t="n">
-        <v>0.007069826126098633</v>
+        <v>0.007187843322753906</v>
       </c>
       <c r="O189" t="n">
         <v>47</v>
@@ -9733,13 +9733,13 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E190" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9733110925771477</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9</v>
       </c>
       <c r="G190" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="H190" t="n">
         <v>1041</v>
@@ -9748,19 +9748,19 @@
         <v>14</v>
       </c>
       <c r="J190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K190" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L190" t="n">
-        <v>0.01000254964828491</v>
+        <v>0.01275550746917725</v>
       </c>
       <c r="M190" t="n">
-        <v>0.03020143508911133</v>
+        <v>0.03642964363098145</v>
       </c>
       <c r="N190" t="n">
-        <v>0.007605552673339844</v>
+        <v>0.007781505584716797</v>
       </c>
       <c r="O190" t="n">
         <v>48</v>
@@ -9782,19 +9782,19 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E191" t="n">
-        <v>0.97581317764804</v>
+        <v>0.9783152627189324</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="G191" t="n">
         <v>0.8958333333333334</v>
       </c>
       <c r="H191" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="I191" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J191" t="n">
         <v>15</v>
@@ -9803,13 +9803,13 @@
         <v>129</v>
       </c>
       <c r="L191" t="n">
-        <v>0.008360416412353515</v>
+        <v>0.008651502370834351</v>
       </c>
       <c r="M191" t="n">
-        <v>0.01752471923828125</v>
+        <v>0.01703286170959473</v>
       </c>
       <c r="N191" t="n">
-        <v>0.006677627563476562</v>
+        <v>0.007172107696533203</v>
       </c>
       <c r="O191" t="n">
         <v>48</v>
@@ -9852,13 +9852,13 @@
         <v>128</v>
       </c>
       <c r="L192" t="n">
-        <v>0.009460718393325806</v>
+        <v>0.01287296938896179</v>
       </c>
       <c r="M192" t="n">
-        <v>0.02142429351806641</v>
+        <v>0.02951884269714355</v>
       </c>
       <c r="N192" t="n">
-        <v>0.007761240005493164</v>
+        <v>0.007931232452392578</v>
       </c>
       <c r="O192" t="n">
         <v>49</v>
@@ -9880,34 +9880,34 @@
         <v>0.9983310152990265</v>
       </c>
       <c r="E193" t="n">
-        <v>0.9766472060050042</v>
+        <v>0.9774812343619683</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9084507042253521</v>
+        <v>0.920863309352518</v>
       </c>
       <c r="G193" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H193" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I193" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J193" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K193" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L193" t="n">
-        <v>0.008002129077911377</v>
+        <v>0.00893972897529602</v>
       </c>
       <c r="M193" t="n">
-        <v>0.01455974578857422</v>
+        <v>0.01973438262939453</v>
       </c>
       <c r="N193" t="n">
-        <v>0.006690025329589844</v>
+        <v>0.007375717163085938</v>
       </c>
       <c r="O193" t="n">
         <v>49</v>
